--- a/modelagem/SpMedGroup.xlsx
+++ b/modelagem/SpMedGroup.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47490086809\Desktop\senai_spmedgroup_sprint1_bd_manha_ThiagoHenrique\modelagem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4E4496-0EB3-4A56-BFC4-82EEF04D3E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -379,63 +388,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ hh:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
@@ -445,7 +463,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -623,191 +641,195 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="27" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="28" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="29" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="30" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -997,1021 +1019,1053 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.57"/>
-    <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="31.71"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
-    <col customWidth="1" min="8" max="8" width="15.57"/>
-    <col customWidth="1" min="9" max="9" width="15.43"/>
-    <col customWidth="1" min="10" max="10" width="39.14"/>
-    <col customWidth="1" min="11" max="11" width="15.57"/>
-    <col customWidth="1" min="12" max="12" width="65.57"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="F4" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="10" t="s">
+    <row r="4" spans="1:11">
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="F5" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="10" t="s">
+    <row r="5" spans="1:11">
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="F6" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="10" t="s">
+    <row r="6" spans="1:11">
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="F7" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="10" t="s">
+    <row r="7" spans="1:11">
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="B8" s="45"/>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="F13" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="9" t="s">
+    <row r="13" spans="1:11">
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14">
-      <c r="F14" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="9" t="s">
+    <row r="14" spans="1:11">
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="45"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="18">
+        <v>4</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="18">
+        <v>5</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="18">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="18">
+        <v>7</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="26" t="s">
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="27">
-        <v>9.4839859E10</v>
-      </c>
-      <c r="K23" s="26" t="s">
+      <c r="J23" s="22">
+        <v>94839859000</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="18">
+        <v>8</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="H24" s="28">
-        <v>37095.0</v>
-      </c>
-      <c r="I24" s="26" t="s">
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21">
+        <v>2</v>
+      </c>
+      <c r="H24" s="23">
+        <v>37095</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="27">
-        <v>7.3556944057E10</v>
-      </c>
-      <c r="K24" s="29" t="s">
+      <c r="J24" s="22">
+        <v>73556944057</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="18">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>28773.0</v>
-      </c>
-      <c r="I25" s="29" t="s">
+      <c r="F25" s="21">
+        <v>3</v>
+      </c>
+      <c r="G25" s="21">
+        <v>3</v>
+      </c>
+      <c r="H25" s="25">
+        <v>28773</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="27">
-        <v>1.6839338002E10</v>
-      </c>
-      <c r="K25" s="27" t="s">
+      <c r="J25" s="22">
+        <v>16839338002</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="18">
+        <v>10</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="F26" s="21">
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>4</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="31">
-        <v>1.4332654765E10</v>
-      </c>
-      <c r="K26" s="31" t="s">
+      <c r="J26" s="26">
+        <v>14332654765</v>
+      </c>
+      <c r="K26" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="22">
-        <v>11.0</v>
-      </c>
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="18">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="G27" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="F27" s="21">
+        <v>5</v>
+      </c>
+      <c r="G27" s="21">
+        <v>5</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="31">
-        <v>9.130534801E10</v>
-      </c>
-      <c r="K27" s="31" t="s">
+      <c r="J27" s="26">
+        <v>91305348010</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="22">
-        <v>12.0</v>
-      </c>
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="18">
+        <v>12</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="H28" s="26" t="s">
+      <c r="F28" s="21">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21">
+        <v>6</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="31">
-        <v>7.9799299004E10</v>
-      </c>
-      <c r="K28" s="31" t="s">
+      <c r="J28" s="26">
+        <v>79799299004</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="22">
-        <v>13.0</v>
-      </c>
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="18">
+        <v>13</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="H29" s="33">
-        <v>43223.0</v>
-      </c>
-      <c r="I29" s="34" t="s">
+      <c r="F29" s="21">
+        <v>7</v>
+      </c>
+      <c r="G29" s="21">
+        <v>7</v>
+      </c>
+      <c r="H29" s="28">
+        <v>43223</v>
+      </c>
+      <c r="I29" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="31">
-        <v>1.3771913039E10</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32" t="s">
+      <c r="J29" s="26">
+        <v>13771913039</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="22">
-        <v>14.0</v>
-      </c>
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="1:12" ht="13.8">
+      <c r="A30" s="18">
+        <v>14</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="22">
-        <v>15.0</v>
-      </c>
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="1:12" ht="13.8">
+      <c r="A31" s="18">
+        <v>15</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="22">
-        <v>16.0</v>
-      </c>
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="1:12" ht="13.8">
+      <c r="A32" s="18">
+        <v>16</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="22">
-        <v>17.0</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.8">
+      <c r="A33" s="18">
+        <v>17</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34">
-      <c r="F34" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="H34" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="37" t="s">
+    <row r="34" spans="1:10" ht="13.2">
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <v>8</v>
+      </c>
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35">
-      <c r="F35" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="G35" s="37">
-        <v>9.0</v>
-      </c>
-      <c r="H35" s="37">
-        <v>17.0</v>
-      </c>
-      <c r="I35" s="37" t="s">
+    <row r="35" spans="1:10" ht="13.2">
+      <c r="F35" s="31">
+        <v>2</v>
+      </c>
+      <c r="G35" s="31">
+        <v>9</v>
+      </c>
+      <c r="H35" s="31">
+        <v>17</v>
+      </c>
+      <c r="I35" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36">
-      <c r="F36" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="G36" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="H36" s="37">
-        <v>16.0</v>
-      </c>
-      <c r="I36" s="37" t="s">
+    <row r="36" spans="1:10" ht="13.2">
+      <c r="F36" s="31">
+        <v>3</v>
+      </c>
+      <c r="G36" s="31">
+        <v>10</v>
+      </c>
+      <c r="H36" s="31">
+        <v>16</v>
+      </c>
+      <c r="I36" s="31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="38" t="s">
+    <row r="41" spans="1:10" ht="13.2">
+      <c r="A41" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="I41" s="54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="40" t="s">
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.2">
+      <c r="A42" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="B43" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="C43" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="D43" s="43" t="s">
+    <row r="43" spans="1:10" ht="13.2">
+      <c r="A43" s="35">
+        <v>1</v>
+      </c>
+      <c r="B43" s="35">
+        <v>3</v>
+      </c>
+      <c r="C43" s="35">
+        <v>7</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="45">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="B44" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="C44" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="46">
+      <c r="E43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="37">
+        <v>1</v>
+      </c>
+      <c r="J43" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.2">
+      <c r="A44" s="35">
+        <v>2</v>
+      </c>
+      <c r="B44" s="35">
+        <v>2</v>
+      </c>
+      <c r="C44" s="35">
+        <v>2</v>
+      </c>
+      <c r="D44" s="38">
         <v>43983.416666666664</v>
       </c>
-      <c r="E44" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="I44" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="J44" s="45">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="B45" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="C45" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="D45" s="46">
+      <c r="E44" s="36">
+        <v>2</v>
+      </c>
+      <c r="I44" s="37">
+        <v>2</v>
+      </c>
+      <c r="J44" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.2">
+      <c r="A45" s="35">
+        <v>3</v>
+      </c>
+      <c r="B45" s="35">
+        <v>2</v>
+      </c>
+      <c r="C45" s="35">
+        <v>3</v>
+      </c>
+      <c r="D45" s="38">
         <v>44014.458333333336</v>
       </c>
-      <c r="E45" s="44">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="B46" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="C46" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="46">
+      <c r="E45" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.2">
+      <c r="A46" s="35">
+        <v>4</v>
+      </c>
+      <c r="B46" s="35">
+        <v>2</v>
+      </c>
+      <c r="C46" s="35">
+        <v>2</v>
+      </c>
+      <c r="D46" s="38">
         <v>43253.416666666664</v>
       </c>
-      <c r="E46" s="44">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="B47" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="C47" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="D47" s="46">
+      <c r="E46" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.2">
+      <c r="A47" s="35">
+        <v>5</v>
+      </c>
+      <c r="B47" s="35">
+        <v>1</v>
+      </c>
+      <c r="C47" s="35">
+        <v>4</v>
+      </c>
+      <c r="D47" s="38">
         <v>43648.458333333336</v>
       </c>
-      <c r="E47" s="44">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="B48" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="C48" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="D48" s="46">
+      <c r="E47" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.2">
+      <c r="A48" s="35">
+        <v>6</v>
+      </c>
+      <c r="B48" s="35">
+        <v>3</v>
+      </c>
+      <c r="C48" s="35">
+        <v>7</v>
+      </c>
+      <c r="D48" s="38">
         <v>44046.625</v>
       </c>
-      <c r="E48" s="44">
-        <v>3.0</v>
+      <c r="E48" s="36">
+        <v>3</v>
       </c>
       <c r="I48" s="47" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="B49" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="C49" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="D49" s="46">
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.2">
+      <c r="A49" s="35">
+        <v>7</v>
+      </c>
+      <c r="B49" s="35">
+        <v>1</v>
+      </c>
+      <c r="C49" s="35">
+        <v>4</v>
+      </c>
+      <c r="D49" s="38">
         <v>44077.458333333336</v>
       </c>
-      <c r="E49" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="I49" s="48" t="s">
+      <c r="E49" s="36">
+        <v>3</v>
+      </c>
+      <c r="I49" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50">
-      <c r="I50" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="J50" s="49" t="s">
+    <row r="50" spans="1:10" ht="13.2">
+      <c r="I50" s="40">
+        <v>1</v>
+      </c>
+      <c r="J50" s="40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51">
-      <c r="I51" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="J51" s="49" t="s">
+    <row r="51" spans="1:10" ht="13.2">
+      <c r="I51" s="40">
+        <v>2</v>
+      </c>
+      <c r="J51" s="40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52">
-      <c r="I52" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="J52" s="49" t="s">
+    <row r="52" spans="1:10" ht="13.2">
+      <c r="I52" s="40">
+        <v>3</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:10" ht="13.2">
+      <c r="A53" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="51"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="52" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.2">
+      <c r="A54" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="51"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B55" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="C55" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B56" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="51"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B57" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="C57" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="53">
-        <v>4.0</v>
-      </c>
-      <c r="B58" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="C58" s="53">
-        <v>4.0</v>
-      </c>
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="53">
-        <v>5.0</v>
-      </c>
-      <c r="B59" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="C59" s="53">
-        <v>5.0</v>
-      </c>
-      <c r="D59" s="51"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="53">
-        <v>6.0</v>
-      </c>
-      <c r="B60" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="C60" s="53">
-        <v>6.0</v>
-      </c>
-      <c r="D60" s="51"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="53">
-        <v>7.0</v>
-      </c>
-      <c r="B61" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="C61" s="53">
-        <v>7.0</v>
-      </c>
-      <c r="D61" s="51"/>
+      <c r="D54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.2">
+      <c r="A55" s="43">
+        <v>1</v>
+      </c>
+      <c r="B55" s="43">
+        <v>1</v>
+      </c>
+      <c r="C55" s="43">
+        <v>3</v>
+      </c>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.2">
+      <c r="A56" s="43">
+        <v>2</v>
+      </c>
+      <c r="B56" s="43">
+        <v>1</v>
+      </c>
+      <c r="C56" s="43">
+        <v>4</v>
+      </c>
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.2">
+      <c r="A57" s="43">
+        <v>3</v>
+      </c>
+      <c r="B57" s="43">
+        <v>2</v>
+      </c>
+      <c r="C57" s="43">
+        <v>5</v>
+      </c>
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.2">
+      <c r="A58" s="43">
+        <v>4</v>
+      </c>
+      <c r="B58" s="43">
+        <v>1</v>
+      </c>
+      <c r="C58" s="43">
+        <v>6</v>
+      </c>
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.2">
+      <c r="A59" s="43">
+        <v>5</v>
+      </c>
+      <c r="B59" s="43">
+        <v>2</v>
+      </c>
+      <c r="C59" s="43">
+        <v>7</v>
+      </c>
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.2">
+      <c r="A60" s="43">
+        <v>6</v>
+      </c>
+      <c r="B60" s="43">
+        <v>2</v>
+      </c>
+      <c r="C60" s="43">
+        <v>8</v>
+      </c>
+      <c r="D60" s="41"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.2">
+      <c r="A61" s="43">
+        <v>7</v>
+      </c>
+      <c r="B61" s="43">
+        <v>1</v>
+      </c>
+      <c r="C61" s="43">
+        <v>9</v>
+      </c>
+      <c r="D61" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2027,15 +2081,15 @@
     <mergeCell ref="I41:J41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J3"/>
-    <hyperlink r:id="rId2" ref="J4"/>
-    <hyperlink r:id="rId3" ref="J5"/>
-    <hyperlink r:id="rId4" ref="J6"/>
-    <hyperlink r:id="rId5" ref="J7"/>
-    <hyperlink r:id="rId6" ref="J8"/>
-    <hyperlink r:id="rId7" ref="J9"/>
-    <hyperlink r:id="rId8" ref="J12"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>